--- a/diff_table.xlsx
+++ b/diff_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B202"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +432,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rissouna</t>
+          <t>Megadarma spasma</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -444,1830 +444,1363 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epithonium</t>
+          <t>Psysocyclus</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rissoina</t>
+          <t>Megadarmaasma</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ringiculata</t>
+          <t>Symplocos spicata</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Epitonium</t>
+          <t>Physocyclus</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Megadarma spasma</t>
+          <t>Animalia</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ringicula</t>
+          <t>Symplocosicata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Psedovaria</t>
+          <t>Cynopterus sphinx</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Megadarmaasma</t>
+          <t>Species B</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Psysocyclus</t>
+          <t>Ansonia spinulifer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pseudovaria</t>
+          <t>Species C</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Symplocos spicata</t>
+          <t>Thysanantus spathulistipus</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Physocyclus</t>
+          <t>Spesies A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Laccaurea</t>
+          <t>Pyrrhobryum spiniforme</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Symplocosicata</t>
+          <t>Cynopterushinx</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Animalia</t>
+          <t>Pyrrobryum spiniforme</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Baccaurea</t>
+          <t>LimnonectesV</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Telebralia</t>
+          <t>Eonycteris spelea</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Species B</t>
+          <t>Ansoniainulifer</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cynopterus sphinx</t>
+          <t>Spinaria spinator</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Species C</t>
+          <t>Thysanantusathulistipus</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Limnonectes spV</t>
+          <t>Macroteleia spinitibia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Spesies A</t>
+          <t>Pyrrhobryuminiforme</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ansonia spinulifer</t>
+          <t>Andrallus splendens</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cynopterushinx</t>
+          <t>Pyrrobryuminiforme</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Thysanantus spathulistipus</t>
+          <t>Phthitia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LimnonectesV</t>
+          <t>Eonycteriselea</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pyrrhobryum spiniforme</t>
+          <t>Engelhardtia spicata</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ansoniainulifer</t>
+          <t>Spinariainator</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pyrrobryum spiniforme</t>
+          <t>Gea spinipes</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Thysanantusathulistipus</t>
+          <t>Macroteleiainitibia</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Eonycteris spelea</t>
+          <t>Spartaeus spimanus</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pyrrhobryuminiforme</t>
+          <t>Platycerioideae</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spinaria spinator</t>
+          <t>Passiena spinicus</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pyrrobryuminiforme</t>
+          <t>Andralluslendens</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Macroteleia spinitibia</t>
+          <t>Spartaeus spiniamatus</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Eonycteriselea</t>
+          <t>Lacurbs</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Andrallus splendens</t>
+          <t>Poriskina</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Spinariainator</t>
+          <t>Pththitia</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Digittaria</t>
+          <t>Medinilla speciosa</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Macroteleiainitibia</t>
+          <t>Engelhardtiaicata</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Cooffea</t>
+          <t>Engelhardia spicata</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Platycerioideae</t>
+          <t>Geainipes</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Phthitia</t>
+          <t>Anisota</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Andralluslendens</t>
+          <t>Spartaeusimanus</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Engelhardtia spicata</t>
+          <t>Acontistoptera</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Lacurbs</t>
+          <t>Passienainicus</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Gea spinipes</t>
+          <t>Lagerstroemia speciosa</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pththitia</t>
+          <t>Spartaeusiniamatus</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spartaeus spimanus</t>
+          <t>Licualia spinosa</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Engelhardtiaicata</t>
+          <t xml:space="preserve">Ponskina plateniÃƒâ€šÃ‚Â </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Passiena spinicus</t>
+          <t>Alstonia spectabilis</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Geainipes</t>
+          <t>Jenis A</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spartaeus spiniamatus</t>
+          <t>Costus speciosus</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Spartaeusimanus</t>
+          <t>Medinillaeciosa</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ponskina plateni</t>
+          <t>Acanthopora spicifera</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Passienainicus</t>
+          <t>Engelhardiaicata</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Medinilla speciosa</t>
+          <t>Conus sponsalis</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Spartaeusiniamatus</t>
+          <t>Lagerstroemiaeciosa</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Engelhardia spicata</t>
+          <t>Pachyseris speciosa</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ponskina plateniÃƒâ€šÃ‚Â </t>
+          <t>Licualiainosa</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Anisota</t>
+          <t>Eulophia spectabilis</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jenis A</t>
+          <t>Alstoniaectabilis</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Acontistoptera</t>
+          <t>Pomatocalpa spicata</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Medinillaeciosa</t>
+          <t>Costuseciosus</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lagerstroemia speciosa</t>
+          <t>Rhacopilum spectabile</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Engelhardiaicata</t>
+          <t>Acanthoporaicifera</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Licualia spinosa</t>
+          <t>Rhizogonium spiniforme</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Lagerstroemiaeciosa</t>
+          <t>Conusonsalis</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Alstonia spectabilis</t>
+          <t>Cinnyris sperata</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Licualiainosa</t>
+          <t>Pachyseriseciosa</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Costus speciosus</t>
+          <t>Arachnothera chysogenys</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Alstoniaectabilis</t>
+          <t>Eulophiaectabilis</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Acanthopora spicifera</t>
+          <t>Orthosiphon spicatus</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Costuseciosus</t>
+          <t>Pomatocalpaicata</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Conus sponsalis</t>
+          <t>Heosemys spinosa</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Acanthoporaicifera</t>
+          <t>Rhacopilumectabile</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pachyseris speciosa</t>
+          <t>Elaecocarpus sphaericus</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Conusonsalis</t>
+          <t>Rhizogoniuminiforme</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Eulophia spectabilis</t>
+          <t>Quercus spicata</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pachyseriseciosa</t>
+          <t>Cinnyriserata</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Pomatocalpa spicata</t>
+          <t>Turpinia sphaerocarpa</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Eulophiaectabilis</t>
+          <t>Acrachnothetera chysogenys</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Rhacopilum spectabile</t>
+          <t>Tylerius spinosissimus</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pomatocalpaicata</t>
+          <t>Orthosiphonicatus</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Rhizogonium spiniforme</t>
+          <t>Cacomantis spulcralis</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Rhacopilumectabile</t>
+          <t>Heosemysinosa</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Cinnyris sperata</t>
+          <t>Andrallus spinidens</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Rhizogoniuminiforme</t>
+          <t>Elaecocarpushaericus</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Arachnothera chysogenys</t>
+          <t>Siganus spinus</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cinnyriserata</t>
+          <t>Quercusicata</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Orthosiphon spicatus</t>
+          <t>Caryanda spuria</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Acrachnothetera chysogenys</t>
+          <t>Turpiniahaerocarpa</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Heosemys spinosa</t>
+          <t>Cyathodium spruceanum</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Orthosiphonicatus</t>
+          <t>Tyleriusinosissimus</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Elaecocarpus sphaericus</t>
+          <t>Oscillatoria splendida</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Heosemysinosa</t>
+          <t>Cacomantisulcralis</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Quercus spicata</t>
+          <t>Bougaivillea spectabilis</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Elaecocarpushaericus</t>
+          <t>Andrallusinidens</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Turpinia sphaerocarpa</t>
+          <t>Dromogompus spinosus</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Quercusicata</t>
+          <t>Siganusinus</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Tylerius spinosissimus</t>
+          <t>Guettarda speciosa</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Turpiniahaerocarpa</t>
+          <t>Caryandauria</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cacomantis spulcralis</t>
+          <t>Bougainvillea spectabilis</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tyleriusinosissimus</t>
+          <t>Cyathodiumruceanum</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Andrallus spinidens</t>
+          <t>Drynaria sparsisora</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cacomantisulcralis</t>
+          <t>Oscillatorialendida</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Siganus spinus</t>
+          <t>Turricula nelliae spuria</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Andrallusinidens</t>
+          <t>Bougaivilleaectabilis</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Caryanda spuria</t>
+          <t>Babylonia spirata</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Siganusinus</t>
+          <t>Dromogompusinosus</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Cyathodium spruceanum</t>
+          <t>Dendrobium spathilingue</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Caryandauria</t>
+          <t>Guettardaeciosa</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Oscillatoria splendida</t>
+          <t>Microlepia speluncae</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Cyathodiumruceanum</t>
+          <t>Bougainvilleaectabilis</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bougaivillea spectabilis</t>
+          <t>Atractosteus spatula</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Oscillatorialendida</t>
+          <t>Drynariaarsisora</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Dromogompus spinosus</t>
+          <t>Natahaebe sphatulata</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Bougaivilleaectabilis</t>
+          <t>Turricula nelliaeuria</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Guettarda speciosa</t>
+          <t>Taenaris catops turdula</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Dromogompusinosus</t>
+          <t>Babyloniairata</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Bougainvillea spectabilis</t>
+          <t>Hyantis hodeva helvola</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Guettardaeciosa</t>
+          <t>Dendrobiumathilingue</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Drynaria sparsisora</t>
+          <t>Tirumala hamata hamata</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Bougainvilleaectabilis</t>
+          <t>Microlepiaeluncae</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Turricula nelliae spuria</t>
+          <t>Euploea phaenareta phaenareta</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Drynariaarsisora</t>
+          <t>Atractosteusatula</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Babylonia spirata</t>
+          <t>Parantica schenkii schenkii</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Turricula nelliaeuria</t>
+          <t>Natahaebehatulata</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Dendrobium spathilingue</t>
+          <t>Epimastidia inops pilumna</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Babyloniairata</t>
+          <t>Rhaphidophora</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Microlepia speluncae</t>
+          <t>Cyrestis acilia gades</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Dendrobiumathilingue</t>
+          <t>Bosmina</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Atractosteus spatula</t>
+          <t>Panthoporia cosimilis cosimilis</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Microlepiaeluncae</t>
+          <t>Chrysipteraringeri</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Natahaebe sphatulata</t>
+          <t>Cupha prosope prosope</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Atractosteusatula</t>
+          <t>Gnathanodoneciosus</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Phalanger orientalis</t>
+          <t>Hypolimnas bolina nerina</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Natahaebehatulata</t>
+          <t>Pomacentrusilotoceps</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Spilocuscus maculatus</t>
+          <t>Neptis nausicaa nausicaa</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Laportea</t>
+          <t>Amaranthusinosus</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Glocidion</t>
+          <t>Vindula arsinoe ada</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Medinilla pachyphylla</t>
+          <t>Murdanniairata</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Baccauria</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Cryptocaria</t>
+          <t>Ornithoptera priamus poseidon</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Flacourtia inermis</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Gleichenia lynearis</t>
+          <t>Papilio aegeus othello</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Meremia</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Ricinus communis</t>
+          <t>Alcides agathyrsus</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Pandanus venus</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Dodonea viscosa</t>
+          <t>Cepora abnormis abnormis</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Pandanus artocarpus</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Vitex pinnata</t>
+          <t>Eurema hacebe oeta</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Eugenia aquea</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Commelina difusa</t>
+          <t>Cepora aspasia aspasia</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sonneratia</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Alphitonia</t>
+          <t>Catopsilia pomoa pomoa</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Spondias domesticum</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Forestia</t>
+          <t>Mycalesis phidon phidon</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Phalanger permixtio</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Pipturus</t>
+          <t>Melanius constantia constantia</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Crocodylus porosus</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Coleus hybridus</t>
+          <t>Danis danis</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Crocodylus novaeguineae</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Kalanchoea pinnata</t>
+          <t>Papilio ullyses</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Elaeocarpus</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Decaspermum fruti</t>
+          <t>Papilio ullyses othello</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Elastotema</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Weinmannia</t>
+          <t>Papilio euchenor euchenor</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bixa orellana</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Euodia eleryana</t>
+          <t>Alcydes agathyrsus</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MucunaÂ pruriensÂ utilis</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Homalanthus</t>
+          <t>Graphium sarpedon coredon</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Chrysiptera springeri</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Murdania nudiflora</t>
+          <t>Pacylopta polydorus lascarus</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ctenogobios</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Merenia</t>
+          <t>Saletera cycinna corinna</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Gnathanodon speciosus</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Mussaenda frondosa</t>
+          <t>Troides oblongomaculatus papuensis</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Pomacentrus spilotoceps</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Alphitonia celtiditolia</t>
+          <t>Elymnias agondas melantho</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Murdannia spirata</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Fleurya</t>
+          <t>Panthoporia venila</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Amaranthus spinosus</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Amaranthus hybrida</t>
+          <t>Papilio auchenor auchenor</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>Euploea latifasciata radica</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Papilio aegeus othelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Eurema candida salomonis</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Euploea phaenareta</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Danaus chrysippus cratippus</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Phaedema heliopolis</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Phalanger orientalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Spilocuscus maculatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Flacourtia inermis</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Eugenia aquea</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sonneratia</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Crocodylus porosus</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Crocodylus novaeguineae</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Elaeocarpus</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Bixa orellana</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MucunaÂ pruriensÂ utilis</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Varanus indicus</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Varanus prasinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Varanus salvadorii</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Echymipera rufescens</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Intsia palembanica</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Pentaphalangium pachycarpum A. C. Smith</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Isachne</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Spenifex littoreus</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Mucuna</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Lansium</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Falcatifolium pauanum</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Glochiodon</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Acanthus</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Homalomena</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Arthocarpus communis</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Kleinhovia hospita</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Bambosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Hornstedtia lycostoma</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Dryopteris arida</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Leucosyke</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Neololeba</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Desmodium</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Metroxylon</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Macaranga aleuritoides</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Setaria palmifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Selaginella</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Gonocaryum</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Ficus myriocarpa</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Ficus katabibi</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Rhapidophora</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Chrysiptera springeri</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Gnathanodon speciosus</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Pomacentrus spilotoceps</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Murdannia spirata</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Amaranthus spinosus</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
           <t>Isthmia</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Boerhavia erecta</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Saurapus androgynus</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Eugenia malaccensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Canarium</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Drymis piperita</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Drymis</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Drymis beccariana</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Timonius</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Cucurbita</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Amaranthus</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Equisetum debile</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Xanthomyrtus</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Elephantopus scabra</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Centotheca latifolia</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Acalypha wilkesiana</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Coleus</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Amomum</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Rubus rosifolius</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Phragmites karka</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Dianella ensifolia</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Anthurium</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Areca catheca</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>casia alata</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Cinnamomun cullilawan</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Coleus blumei</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Orthosophon aristatus</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Theobromo cacao</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Harpulia</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>languas galangal</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Callophyllum</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Pometia</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Koordersiodendron pinatum</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Intsia</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Rhizophora</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Vitex cofasus</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Palaquium amboinense</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>manilkara kauki</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Adina</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Sizygium</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Mastixiodendron pachyclados</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Psidium guajaya</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Dendrocalamus asper</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Dehaasia</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Litsea ladermani</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Litsea timoriana</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Adenanthera microsperma</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Barringtonia</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Callophyllum papuanum</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Callophyllum savanarum</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Ficus adeosperma</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Litsea odorifera</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Litsea tuberculata</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Manilkara</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Palaquium amboinensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Sterculia parkinsonii</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Toona</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Colocasia</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Ipomea batatas</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Manihot asculenta</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Volvariella valvaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Anonas comosus</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Adenanthera novoguinensis</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Glochidion</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Merremia peltata</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Ipomoea pleibeia</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Scaevola sericea</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Premna corymbosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Arcangelisia flava</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Tabernaemontama aurantiaca</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Palmeria</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Piper winchamani</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Rhaphidophora</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Mangifera minor</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Cissus discolor</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Ananas camosus</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Dysoxylom molle</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>selaginella doederleiniihieron</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Acalypha</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Citrus aurantiam</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Strobilanthes crispus</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Leucaena glauca</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Coleus kybridus</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Meremia peltata</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Caraca papaya</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Hedyotis corymbosa</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Ocinum basilicum</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Annona moricana</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Palaquium labianum</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Metroxyllon sagu</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Hydriastele</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Aegiceras corniculatum</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Aegiceras floridum</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>ceriops tagal</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Rhizophora apiculata</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>rhizophora mucronata</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Scyphiphora hydrophyllace</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Bosmina</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Chrysipteraringeri</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Ctenogobiops</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Gnathanodoneciosus</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Pomacentrusilotoceps</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Amaranthusinosus</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Murdanniairata</t>
         </is>
       </c>
     </row>
